--- a/Örnek 17 - Tarih Saat İşlemleri.xlsx
+++ b/Örnek 17 - Tarih Saat İşlemleri.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406DF937-ABDF-4342-BBD7-59E6CBEA7C39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3ACC6-FD21-4FBE-9EE1-C46F82F53712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>YIL</t>
   </si>
@@ -147,11 +150,17 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yönetim Bilişim Sistemleri </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -419,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,17 +472,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,180 +766,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="8"/>
+    <col min="1" max="2" width="9.125" style="8"/>
+    <col min="3" max="3" width="17.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="8"/>
     <col min="8" max="8" width="23" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="9" max="9" width="24.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:9" ht="24.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44546</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <f ca="1">NOW()</f>
+        <v>44546.650633101854</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="3:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="3:9" ht="10.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="14"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <f ca="1">YEAR(D5)</f>
+        <v>2021</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <f ca="1">MONTH(D5)</f>
+        <v>12</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <f ca="1">DAY(D5)</f>
+        <v>16</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="19">
+        <v>0.53611111111111109</v>
+      </c>
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>52</v>
+      </c>
       <c r="E12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="3:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="3:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <f ca="1">SECOND(D5)</f>
+        <v>0</v>
+      </c>
       <c r="E13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="18" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="18" spans="3:9" ht="15.65" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="D18" s="20">
+        <v>20215070055</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="3:9" ht="15.65" x14ac:dyDescent="0.25">
       <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="D19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="3:9" ht="15.65" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="22" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="22" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="H24" s="3" t="s">
         <v>27</v>
       </c>
@@ -935,16 +975,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="H28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
@@ -952,6 +987,11 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -961,12 +1001,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -975,12 +1015,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
